--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\Останкино КИ\ostankino_ki\UZ\moduls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B33B23-3439-4E84-BDDD-BD09FE1E3A09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB93B3-A337-4909-9EEA-E9780C9C9989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$25</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>1С</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>7058 ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3_60с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7070 СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7187 ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -507,11 +519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,7 +637,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="B10" s="3">
         <v>1001022377070</v>
@@ -636,127 +648,171 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>1001061971146</v>
+        <v>1001022377070</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>1001061975738</v>
+        <v>1001061971146</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="3">
-        <v>1001060764993</v>
+        <v>1001061975738</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1001062474154</v>
+        <v>1001060764993</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>1001062475739</v>
+        <v>1001062474154</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="3">
-        <v>1001085636200</v>
+        <v>1001062475739</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="B17" s="3">
-        <v>1001012566346</v>
+        <v>1001085636200</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
-        <v>1001035277058</v>
+        <v>1001085636200</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>1001022657075</v>
+        <v>1001012566346</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B20" s="3">
-        <v>1001301877017</v>
+        <v>1001035277058</v>
       </c>
       <c r="C20" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1001035277058</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1001022657075</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1001022657075</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1001301877017</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B25" s="3">
         <v>1001300456787</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C25" t="s">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C25" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EB93B3-A337-4909-9EEA-E9780C9C9989}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ED674A-FB47-4045-9829-02A98C575171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$25</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>1С</t>
   </si>
@@ -42,9 +42,6 @@
     <t>4079 СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_UZ</t>
-  </si>
-  <si>
     <t>4087   СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/К 0,35</t>
   </si>
   <si>
@@ -96,12 +93,6 @@
     <t>6853 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1*6  ОСТАНКИНО</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ КОП.НА БУКЕ в/к в/у 0.35кг_A/UZ</t>
-  </si>
-  <si>
-    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у_AUZ</t>
-  </si>
-  <si>
     <t>ЭКСТРА Папа может вар п/о 0.4кг_СНГ</t>
   </si>
   <si>
@@ -150,9 +141,6 @@
     <t>5608 СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_СНГ</t>
   </si>
   <si>
-    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг_A/UZ</t>
-  </si>
-  <si>
     <t>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.  ОСТАНКИНО</t>
   </si>
   <si>
@@ -169,6 +157,24 @@
   </si>
   <si>
     <t>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КОПЧ.НА БУКЕ в/к в/у 0.35кг_СНГ</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.84кг</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ФИНСКИЙ ПМ в/к в/у 0.35кг_СНГ</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3</t>
+  </si>
+  <si>
+    <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
   </si>
 </sst>
 </file>
@@ -523,7 +529,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,263 +558,263 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>1001304237009</v>
+        <v>1001304237159</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="3">
-        <v>1001304237007</v>
+        <v>1001304237158</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>1001300457002</v>
+        <v>1001300456946</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>1001012506354</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>1001012484405</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>1001012486334</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3">
         <v>1001012564335</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3">
         <v>1001012503220</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B10" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>1001022377070</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>1001061971146</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>1001061975738</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>1001060764993</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>1001062474154</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>1001062475739</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3">
-        <v>1001085636200</v>
+        <v>1001085637187</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3">
         <v>1001085636200</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="3">
         <v>1001012566346</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="3">
         <v>1001035277058</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3">
         <v>1001035277058</v>
       </c>
       <c r="C21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B22" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" s="3">
-        <v>1001301877017</v>
+        <v>1001301876698</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B25" s="3">
-        <v>1001300456787</v>
+        <v>1001304506260</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ED674A-FB47-4045-9829-02A98C575171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D492A-B85F-4132-9DDE-72CC7C593399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
   <si>
     <t>1С</t>
   </si>
@@ -175,6 +175,39 @@
   </si>
   <si>
     <t>ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 0.41кг_СНГ_50с</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт.</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</t>
+  </si>
+  <si>
+    <t>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с</t>
+  </si>
+  <si>
+    <t>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</t>
+  </si>
+  <si>
+    <t>ГОВЯЖЬЯ Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
   </si>
 </sst>
 </file>
@@ -209,7 +242,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -232,17 +265,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
@@ -525,11 +647,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
@@ -815,6 +937,149 @@
       </c>
       <c r="C25" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="5">
+        <v>1001300456787</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1001012503220</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1001022377067</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1001012426268</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="8">
+        <v>1001022556837</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1001025507077</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1001223297104</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B33" s="8">
+        <v>1001035277059</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="8">
+        <v>1001023696765</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1001300366807</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1001012426220</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="8">
+        <v>7333</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="11">
+        <v>7332</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446D492A-B85F-4132-9DDE-72CC7C593399}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB55D3-9AEA-4FDD-B940-A42C9A6C762C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$46</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>1С</t>
   </si>
@@ -208,6 +208,27 @@
   </si>
   <si>
     <t>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</t>
+  </si>
+  <si>
+    <t>7104 БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50 ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7077 МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6765 РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7333 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7067 СОЧНЫЕ ПМ сос п/о мгс 0.41кг_СНГ_50с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>7059 ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -647,11 +668,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,138 +973,226 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B27" s="8">
-        <v>1001012503220</v>
+        <v>1001300456787</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B28" s="8">
-        <v>1001022377067</v>
+        <v>1001012503220</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="8">
-        <v>1001012426268</v>
+        <v>1001022377067</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B30" s="8">
-        <v>1001022556837</v>
+        <v>1001022377067</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="8">
-        <v>1001025507077</v>
+        <v>1001012426268</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B32" s="8">
-        <v>1001223297104</v>
+        <v>1001022556837</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B33" s="8">
-        <v>1001035277059</v>
+        <v>1001022556837</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B34" s="8">
-        <v>1001023696765</v>
+        <v>1001025507077</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B35" s="8">
-        <v>1001300366807</v>
+        <v>1001025507077</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B36" s="8">
-        <v>1001012426220</v>
+        <v>1001223297104</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="8">
+        <v>1001223297104</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1001035277059</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1001035277059</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1001023696765</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1001023696765</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1001300366807</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="8">
+        <v>1001012426220</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="8">
+      <c r="B44" s="8">
         <v>7333</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C44" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" s="8">
+        <v>7333</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B46" s="11">
         <v>7332</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C46" s="12" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C25" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C46" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFDB55D3-9AEA-4FDD-B940-A42C9A6C762C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE47C06-F70D-45D3-A15D-90E50517E9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$49</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
   <si>
     <t>1С</t>
   </si>
@@ -229,6 +229,15 @@
   </si>
   <si>
     <t>7059 ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6268 ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>6220 ГОВЯЖЬЯ Папа может вар п/о  ОСТАНКИНО</t>
   </si>
 </sst>
 </file>
@@ -668,11 +677,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,18 +1037,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="B32" s="8">
-        <v>1001022556837</v>
+        <v>1001012426268</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B33" s="8">
         <v>1001022556837</v>
@@ -1050,18 +1059,18 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="B34" s="8">
-        <v>1001025507077</v>
+        <v>1001022556837</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B35" s="8">
         <v>1001025507077</v>
@@ -1072,18 +1081,18 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B36" s="8">
-        <v>1001223297104</v>
+        <v>1001025507077</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B37" s="8">
         <v>1001223297104</v>
@@ -1094,18 +1103,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B38" s="8">
-        <v>1001035277059</v>
+        <v>1001223297104</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B39" s="8">
         <v>1001035277059</v>
@@ -1116,18 +1125,18 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B40" s="8">
-        <v>1001023696765</v>
+        <v>1001035277059</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B41" s="8">
         <v>1001023696765</v>
@@ -1138,61 +1147,94 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B42" s="8">
-        <v>1001300366807</v>
+        <v>1001023696765</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="8">
-        <v>1001012426220</v>
+        <v>1001300366807</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B44" s="8">
-        <v>7333</v>
+        <v>1001300366807</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="8">
+        <v>1001012426220</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="8">
+        <v>1001012426220</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B47" s="8">
+        <v>7333</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B45" s="8">
+      <c r="B48" s="8">
         <v>7333</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C48" s="9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10" t="s">
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B49" s="11">
         <v>7332</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C49" s="12" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C46" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C49" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE47C06-F70D-45D3-A15D-90E50517E9C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1652532-8D23-419F-BE4A-70C0863C1D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
   <si>
     <t>1С</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>6220 ГОВЯЖЬЯ Папа может вар п/о  ОСТАНКИНО</t>
+  </si>
+  <si>
+    <t>заказывали раньше</t>
   </si>
 </sst>
 </file>
@@ -677,11 +680,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,8 +693,8 @@
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="49.140625" customWidth="1"/>
     <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>39</v>
       </c>
@@ -881,7 +884,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -892,7 +895,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -903,7 +906,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -914,7 +917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -925,7 +928,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -936,7 +939,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>18</v>
       </c>
@@ -947,7 +950,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>34</v>
       </c>
@@ -958,18 +961,27 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B25" s="3">
-        <v>1001304506260</v>
+        <v>1001300456787</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <v>1001304506260</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
@@ -980,7 +992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>35</v>
       </c>
@@ -991,7 +1003,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>23</v>
       </c>
@@ -1002,7 +1014,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>47</v>
       </c>
@@ -1013,7 +1025,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>62</v>
       </c>
@@ -1024,7 +1036,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>48</v>
       </c>
@@ -1035,7 +1047,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
@@ -1205,7 +1217,7 @@
         <v>56</v>
       </c>
       <c r="B47" s="8">
-        <v>7333</v>
+        <v>1001303987333</v>
       </c>
       <c r="C47" s="9" t="s">
         <v>56</v>
@@ -1216,7 +1228,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="8">
-        <v>7333</v>
+        <v>1001303987333</v>
       </c>
       <c r="C48" s="9" t="s">
         <v>56</v>
@@ -1227,7 +1239,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="11">
-        <v>7332</v>
+        <v>1001301777332</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>57</v>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1652532-8D23-419F-BE4A-70C0863C1D04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D835F-A35E-4473-8233-B4625FEE8BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$49</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
   <si>
     <t>1С</t>
   </si>
@@ -241,6 +241,15 @@
   </si>
   <si>
     <t>заказывали раньше</t>
+  </si>
+  <si>
+    <t>ротация на заводе</t>
+  </si>
+  <si>
+    <t>ФИЛЕЙНАЯ Папа может вар п/о 0.5кг 8шт.</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
   </si>
 </sst>
 </file>
@@ -900,10 +909,19 @@
         <v>16</v>
       </c>
       <c r="B19" s="3">
+        <v>1001012566345</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3">
         <v>1001012566346</v>
       </c>
-      <c r="C19" t="s">
+      <c r="F19" t="s">
         <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,7 +1161,7 @@
         <v>1001035277059</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A7D835F-A35E-4473-8233-B4625FEE8BDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0478B-B0C2-40E2-A137-4B7FAAC34754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>1С</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 0.3кг</t>
+  </si>
+  <si>
+    <t>ЭКСТРА Папа может вар п/о</t>
+  </si>
+  <si>
+    <t>6071 ЭКСТРА Папа может вар п/о_UZ</t>
   </si>
 </sst>
 </file>
@@ -689,11 +695,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1269,17 @@
         <v>57</v>
       </c>
     </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="3">
+        <v>1001012505851</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C49" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00C0478B-B0C2-40E2-A137-4B7FAAC34754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA54EE-BB45-4A4B-A973-4A90CC23B95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$50</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
   <si>
     <t>1С</t>
   </si>
@@ -111,18 +111,12 @@
     <t>СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с</t>
   </si>
   <si>
-    <t>АРОМАТНАЯ с/к в/у</t>
-  </si>
-  <si>
     <t>АРОМАТНАЯ Папа может с/к в/у 1/250_СНГ</t>
   </si>
   <si>
     <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250*8_120с</t>
   </si>
   <si>
-    <t>ЮБИЛЕЙНАЯ с/к в/у_Л</t>
-  </si>
-  <si>
     <t>ЮБИЛЕЙНАЯ Папа может с/к в/у 1/250_СНГ</t>
   </si>
   <si>
@@ -256,6 +250,15 @@
   </si>
   <si>
     <t>6071 ЭКСТРА Папа может вар п/о_UZ</t>
+  </si>
+  <si>
+    <t>ротация 01,12,25</t>
+  </si>
+  <si>
+    <t>ЮБИЛЕЙНАЯ с/к в/у_Ашан</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к в/у_А</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -712,7 +715,7 @@
     <col min="6" max="6" width="41.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -731,10 +734,10 @@
         <v>1001304237159</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -742,10 +745,10 @@
         <v>1001304237158</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -753,10 +756,10 @@
         <v>1001300456946</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -767,7 +770,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -778,7 +781,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -789,7 +792,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -800,7 +803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -811,9 +814,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="3">
         <v>1001022377070</v>
@@ -822,7 +825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -833,18 +836,21 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1001061971146</v>
+        <v>1001061973582</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -852,10 +858,10 @@
         <v>1001061975738</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
@@ -863,21 +869,24 @@
         <v>1001060764993</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>1001062474154</v>
+        <v>1001062473970</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="F15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -885,18 +894,18 @@
         <v>1001062475739</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B17" s="3">
         <v>1001085637187</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -907,7 +916,7 @@
         <v>1001085636200</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -918,27 +927,27 @@
         <v>1001012566345</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E19" s="3">
         <v>1001012566346</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="3">
         <v>1001035277058</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -949,18 +958,18 @@
         <v>1001035277058</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="3">
         <v>1001022657075</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -971,60 +980,60 @@
         <v>1001022657075</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B24" s="3">
         <v>1001301876698</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B25" s="3">
         <v>1001300456787</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E25" s="3">
         <v>1001304506260</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5">
         <v>1001300456787</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B27" s="8">
         <v>1001300456787</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1040,248 +1049,248 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="8">
         <v>1001022377067</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="8">
         <v>1001022377067</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="8">
         <v>1001012426268</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B32" s="8">
         <v>1001012426268</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="8">
         <v>1001022556837</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B34" s="8">
         <v>1001022556837</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B35" s="8">
         <v>1001025507077</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B36" s="8">
         <v>1001025507077</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="8">
         <v>1001223297104</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B38" s="8">
         <v>1001223297104</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B39" s="8">
         <v>1001035277059</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" s="8">
         <v>1001035277059</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B41" s="8">
         <v>1001023696765</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B42" s="8">
         <v>1001023696765</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B43" s="8">
         <v>1001300366807</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B44" s="8">
         <v>1001300366807</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B45" s="8">
         <v>1001012426220</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B46" s="8">
         <v>1001012426220</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B47" s="8">
         <v>1001303987333</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B48" s="8">
         <v>1001303987333</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B49" s="11">
         <v>1001301777332</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" s="3">
         <v>1001012505851</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C49" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C50" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
+++ b/в бланки заводов/Останкино КИ/ostankino_ki/UZ/moduls/1С.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\в бланки заводов\Останкино КИ\ostankino_ki\UZ\moduls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDCA54EE-BB45-4A4B-A973-4A90CC23B95B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1731C220-8734-4216-8A83-5B87F7CE1FB0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,9 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$C$60</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="86">
   <si>
     <t>1С</t>
   </si>
@@ -259,6 +259,39 @@
   </si>
   <si>
     <t>АРОМАТНАЯ с/к в/у_А</t>
+  </si>
+  <si>
+    <t>ротация 11,12,25</t>
+  </si>
+  <si>
+    <t>СОЧНЫЕ ПМ сос п/о мгс 1*6_СНГ</t>
+  </si>
+  <si>
+    <t>САЛЯМИ Папа может п/к в/у 0.28кг_209к</t>
+  </si>
+  <si>
+    <t>МЯСНЫЕ Папа может сар б/о мгс 1*3_Х5_45с</t>
+  </si>
+  <si>
+    <t>ОКОРОК КОПЧЕНЫЙ к/в мл/к в/у 0.3кг_СНГ</t>
+  </si>
+  <si>
+    <t>ШПИКАЧКИ СОЧНЫЕ сар б/о мгс 1*3_Ашан_45с</t>
+  </si>
+  <si>
+    <t>САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/150_СНГ_60с</t>
+  </si>
+  <si>
+    <t>КЛАССИЧЕСКАЯ ПМ вар п/о 0.3кг 8шт_209к</t>
+  </si>
+  <si>
+    <t>СЕРВЕЛАТ КАРЕЛЬС.вк в/у 0.28кг_СНГ_209к</t>
+  </si>
+  <si>
+    <t>АРОМАТНАЯ с/к с/н в/у 1/100_СНГ</t>
+  </si>
+  <si>
+    <t>МОЛОЧНЫЕ КЛАССИЧЕСКИЕ сос п/о в/у 0.3кг</t>
   </si>
 </sst>
 </file>
@@ -402,7 +435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -416,6 +449,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Arial10px" xfId="2" xr:uid="{C0A75BEE-14F2-4260-AF17-AC512850AE79}"/>
@@ -698,11 +734,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1127,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>47</v>
       </c>
@@ -1102,7 +1138,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>61</v>
       </c>
@@ -1113,7 +1149,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>48</v>
       </c>
@@ -1124,18 +1160,21 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="8">
-        <v>1001025507077</v>
+        <v>1001025507255</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -1146,7 +1185,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>56</v>
       </c>
@@ -1157,7 +1196,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>50</v>
       </c>
@@ -1168,7 +1207,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>62</v>
       </c>
@@ -1179,7 +1218,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>51</v>
       </c>
@@ -1190,7 +1229,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>58</v>
       </c>
@@ -1201,7 +1240,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>52</v>
       </c>
@@ -1212,7 +1251,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
         <v>64</v>
       </c>
@@ -1223,7 +1262,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>53</v>
       </c>
@@ -1234,7 +1273,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>65</v>
       </c>
@@ -1245,7 +1284,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>54</v>
       </c>
@@ -1256,7 +1295,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>59</v>
       </c>
@@ -1278,7 +1317,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>71</v>
       </c>
@@ -1289,8 +1328,118 @@
         <v>70</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1001022377070</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="8">
+        <v>1001303107241</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="8">
+        <v>1001032736549</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="8">
+        <v>1001083446207</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="8">
+        <v>1001031076548</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="8">
+        <v>1001190765681</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57" s="8">
+        <v>1001013957231</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" s="8">
+        <v>1001304507230</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B59" s="8">
+        <v>1001191975179</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B60" s="11">
+        <v>1001024976616</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C50" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
+  <autoFilter ref="A1:C60" xr:uid="{B07A98A7-8665-46F4-A02B-642D1147C8E7}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
